--- a/Raw_Data/Energy_Consumption_Codes.xlsx
+++ b/Raw_Data/Energy_Consumption_Codes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Alia/Documents/Github/FinalProjectPPOL564/Raw_Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{758D13CE-31BC-454B-BAE3-A9F6DF4A566F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7ACB8751-30C0-1D4D-8842-A1700AE7B081}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5640" yWindow="1420" windowWidth="15480" windowHeight="12940" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="14280" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Intro" sheetId="8" r:id="rId1"/>
@@ -4877,7 +4877,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -4887,6 +4886,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -5430,8 +5430,8 @@
   </sheetPr>
   <dimension ref="A2:I730"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C733" sqref="C733"/>
+    <sheetView tabSelected="1" topLeftCell="A106" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C313" sqref="C313"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -6520,18 +6520,18 @@
       <c r="B103" s="38" t="s">
         <v>127</v>
       </c>
-      <c r="C103" s="59" t="s">
+      <c r="C103" s="58" t="s">
         <v>872</v>
       </c>
       <c r="D103" s="52" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="104" spans="1:9" ht="14" hidden="1" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:9" ht="14" x14ac:dyDescent="0.15">
       <c r="B104" s="38" t="s">
         <v>208</v>
       </c>
-      <c r="C104" s="25" t="s">
+      <c r="C104" s="58" t="s">
         <v>873</v>
       </c>
       <c r="D104" s="52" t="s">
@@ -6553,7 +6553,7 @@
       <c r="B106" s="38" t="s">
         <v>209</v>
       </c>
-      <c r="C106" s="59" t="s">
+      <c r="C106" s="58" t="s">
         <v>874</v>
       </c>
       <c r="D106" s="52" t="s">
@@ -6910,18 +6910,18 @@
       <c r="B137" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="C137" s="59" t="s">
+      <c r="C137" s="58" t="s">
         <v>897</v>
       </c>
       <c r="D137" s="52" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="138" spans="2:4" ht="14" hidden="1" x14ac:dyDescent="0.15">
+    <row r="138" spans="2:4" ht="14" x14ac:dyDescent="0.15">
       <c r="B138" s="38" t="s">
         <v>223</v>
       </c>
-      <c r="C138" s="25" t="s">
+      <c r="C138" s="58" t="s">
         <v>898</v>
       </c>
       <c r="D138" s="52" t="s">
@@ -6943,7 +6943,7 @@
       <c r="B140" s="38" t="s">
         <v>224</v>
       </c>
-      <c r="C140" s="59" t="s">
+      <c r="C140" s="58" t="s">
         <v>899</v>
       </c>
       <c r="D140" s="52" t="s">
@@ -7625,18 +7625,18 @@
       <c r="B202" s="38" t="s">
         <v>656</v>
       </c>
-      <c r="C202" s="59" t="s">
+      <c r="C202" s="58" t="s">
         <v>1241</v>
       </c>
       <c r="D202" s="52" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="203" spans="2:4" ht="14" hidden="1" x14ac:dyDescent="0.15">
+    <row r="203" spans="2:4" ht="14" x14ac:dyDescent="0.15">
       <c r="B203" s="38" t="s">
         <v>239</v>
       </c>
-      <c r="C203" s="25" t="s">
+      <c r="C203" s="58" t="s">
         <v>934</v>
       </c>
       <c r="D203" s="52" t="s">
@@ -7658,7 +7658,7 @@
       <c r="B205" s="38" t="s">
         <v>240</v>
       </c>
-      <c r="C205" s="59" t="s">
+      <c r="C205" s="58" t="s">
         <v>935</v>
       </c>
       <c r="D205" s="52" t="s">
@@ -8252,18 +8252,18 @@
       <c r="B259" s="38" t="s">
         <v>741</v>
       </c>
-      <c r="C259" s="59" t="s">
+      <c r="C259" s="58" t="s">
         <v>962</v>
       </c>
       <c r="D259" s="52" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="260" spans="2:4" ht="14" hidden="1" x14ac:dyDescent="0.15">
+    <row r="260" spans="2:4" ht="14" x14ac:dyDescent="0.15">
       <c r="B260" s="38" t="s">
         <v>742</v>
       </c>
-      <c r="C260" s="25" t="s">
+      <c r="C260" s="58" t="s">
         <v>963</v>
       </c>
       <c r="D260" s="52" t="s">
@@ -8285,7 +8285,7 @@
       <c r="B262" s="38" t="s">
         <v>744</v>
       </c>
-      <c r="C262" s="59" t="s">
+      <c r="C262" s="58" t="s">
         <v>964</v>
       </c>
       <c r="D262" s="52" t="s">
@@ -8835,18 +8835,18 @@
       <c r="B312" s="38" t="s">
         <v>624</v>
       </c>
-      <c r="C312" s="59" t="s">
+      <c r="C312" s="58" t="s">
         <v>996</v>
       </c>
       <c r="D312" s="52" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="313" spans="2:4" ht="14" hidden="1" x14ac:dyDescent="0.15">
+    <row r="313" spans="2:4" ht="14" x14ac:dyDescent="0.15">
       <c r="B313" s="38" t="s">
         <v>260</v>
       </c>
-      <c r="C313" s="25" t="s">
+      <c r="C313" s="58" t="s">
         <v>997</v>
       </c>
       <c r="D313" s="52" t="s">
@@ -8868,7 +8868,7 @@
       <c r="B315" s="38" t="s">
         <v>261</v>
       </c>
-      <c r="C315" s="59" t="s">
+      <c r="C315" s="58" t="s">
         <v>998</v>
       </c>
       <c r="D315" s="52" t="s">
@@ -9877,7 +9877,7 @@
       <c r="B403" s="42" t="s">
         <v>581</v>
       </c>
-      <c r="C403" s="60" t="s">
+      <c r="C403" s="59" t="s">
         <v>1337</v>
       </c>
       <c r="D403" s="54" t="s">
@@ -9886,11 +9886,11 @@
       <c r="E403" s="2"/>
       <c r="F403" s="2"/>
     </row>
-    <row r="404" spans="1:9" s="3" customFormat="1" ht="14" hidden="1" x14ac:dyDescent="0.15">
+    <row r="404" spans="1:9" s="3" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="B404" s="42" t="s">
         <v>292</v>
       </c>
-      <c r="C404" s="45" t="s">
+      <c r="C404" s="59" t="s">
         <v>1338</v>
       </c>
       <c r="D404" s="54" t="s">
@@ -9916,7 +9916,7 @@
       <c r="B406" s="42" t="s">
         <v>293</v>
       </c>
-      <c r="C406" s="60" t="s">
+      <c r="C406" s="59" t="s">
         <v>1339</v>
       </c>
       <c r="D406" s="54" t="s">
@@ -10842,11 +10842,11 @@
         <v>462</v>
       </c>
     </row>
-    <row r="486" spans="2:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="486" spans="2:5" ht="14" hidden="1" x14ac:dyDescent="0.15">
       <c r="B486" s="38" t="s">
         <v>544</v>
       </c>
-      <c r="C486" s="59" t="s">
+      <c r="C486" s="48" t="s">
         <v>1092</v>
       </c>
       <c r="D486" s="52" t="s">
@@ -10875,11 +10875,11 @@
         <v>537</v>
       </c>
     </row>
-    <row r="489" spans="2:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="489" spans="2:5" ht="14" hidden="1" x14ac:dyDescent="0.15">
       <c r="B489" s="38" t="s">
         <v>542</v>
       </c>
-      <c r="C489" s="59" t="s">
+      <c r="C489" s="48" t="s">
         <v>1092</v>
       </c>
       <c r="D489" s="52" t="s">
@@ -11760,19 +11760,19 @@
       <c r="B567" s="38" t="s">
         <v>768</v>
       </c>
-      <c r="C567" s="59" t="s">
+      <c r="C567" s="58" t="s">
         <v>1144</v>
       </c>
       <c r="D567" s="52" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="568" spans="1:4" ht="14" hidden="1" x14ac:dyDescent="0.15">
+    <row r="568" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A568" s="1"/>
       <c r="B568" s="38" t="s">
         <v>769</v>
       </c>
-      <c r="C568" s="25" t="s">
+      <c r="C568" s="58" t="s">
         <v>1145</v>
       </c>
       <c r="D568" s="52" t="s">
@@ -11796,7 +11796,7 @@
       <c r="B570" s="38" t="s">
         <v>771</v>
       </c>
-      <c r="C570" s="59" t="s">
+      <c r="C570" s="58" t="s">
         <v>1146</v>
       </c>
       <c r="D570" s="52" t="s">
@@ -12492,7 +12492,7 @@
       <c r="B632" s="38" t="s">
         <v>714</v>
       </c>
-      <c r="C632" s="61" t="s">
+      <c r="C632" s="60" t="s">
         <v>1191</v>
       </c>
       <c r="D632" s="52" t="s">
@@ -12729,7 +12729,7 @@
       <c r="B652" s="38" t="s">
         <v>499</v>
       </c>
-      <c r="C652" s="59" t="s">
+      <c r="C652" s="58" t="s">
         <v>1208</v>
       </c>
       <c r="D652" s="52" t="s">
@@ -12740,7 +12740,7 @@
       <c r="B653" s="38" t="s">
         <v>358</v>
       </c>
-      <c r="C653" s="59" t="s">
+      <c r="C653" s="58" t="s">
         <v>1209</v>
       </c>
       <c r="D653" s="52" t="s">
@@ -12751,7 +12751,7 @@
       <c r="B654" s="38" t="s">
         <v>359</v>
       </c>
-      <c r="C654" s="59" t="s">
+      <c r="C654" s="58" t="s">
         <v>1382</v>
       </c>
       <c r="D654" s="52" t="s">
@@ -12773,7 +12773,7 @@
       <c r="B656" s="38" t="s">
         <v>705</v>
       </c>
-      <c r="C656" s="59" t="s">
+      <c r="C656" s="58" t="s">
         <v>1211</v>
       </c>
       <c r="D656" s="52" t="s">
@@ -13099,33 +13099,33 @@
         <v>207</v>
       </c>
     </row>
-    <row r="686" spans="2:4" ht="14" hidden="1" x14ac:dyDescent="0.15">
+    <row r="686" spans="2:4" ht="14" x14ac:dyDescent="0.15">
       <c r="B686" s="38" t="s">
         <v>476</v>
       </c>
-      <c r="C686" s="25" t="s">
+      <c r="C686" s="58" t="s">
         <v>1377</v>
       </c>
       <c r="D686" s="52" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="687" spans="2:4" ht="14" hidden="1" x14ac:dyDescent="0.15">
+    <row r="687" spans="2:4" ht="14" x14ac:dyDescent="0.15">
       <c r="B687" s="38" t="s">
         <v>366</v>
       </c>
-      <c r="C687" s="25" t="s">
+      <c r="C687" s="58" t="s">
         <v>1430</v>
       </c>
       <c r="D687" s="52" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="688" spans="2:4" ht="14" hidden="1" x14ac:dyDescent="0.15">
+    <row r="688" spans="2:4" ht="14" x14ac:dyDescent="0.15">
       <c r="B688" s="38" t="s">
         <v>367</v>
       </c>
-      <c r="C688" s="25" t="s">
+      <c r="C688" s="58" t="s">
         <v>1457</v>
       </c>
       <c r="D688" s="52" t="s">
@@ -13629,7 +13629,7 @@
       <c r="B2" s="23" t="s">
         <v>493</v>
       </c>
-      <c r="F2" s="58"/>
+      <c r="F2" s="61"/>
       <c r="H2" s="26"/>
       <c r="I2" s="26"/>
     </row>
@@ -13637,12 +13637,12 @@
       <c r="B3" s="22" t="s">
         <v>591</v>
       </c>
-      <c r="F3" s="58"/>
+      <c r="F3" s="61"/>
       <c r="H3" s="26"/>
       <c r="I3" s="26"/>
     </row>
     <row r="4" spans="2:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F4" s="58"/>
+      <c r="F4" s="61"/>
       <c r="H4" s="26"/>
       <c r="I4" s="26"/>
     </row>
